--- a/References/tblAreas.xlsx
+++ b/References/tblAreas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="111" windowWidth="24549" windowHeight="13500"/>
+    <workbookView xWindow="70" yWindow="110" windowWidth="24550" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="tblAreas" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>AreaID</t>
   </si>
@@ -104,6 +104,63 @@
   </si>
   <si>
     <t>SBE Branches</t>
+  </si>
+  <si>
+    <t>AreaDesc</t>
+  </si>
+  <si>
+    <t>BWSI-Central</t>
+  </si>
+  <si>
+    <t>BWSI-Central Employees</t>
+  </si>
+  <si>
+    <t>ACC Area</t>
+  </si>
+  <si>
+    <t>ACQ Area</t>
+  </si>
+  <si>
+    <t>JCF Area</t>
+  </si>
+  <si>
+    <t>MCS Area</t>
+  </si>
+  <si>
+    <t>MFVD</t>
+  </si>
+  <si>
+    <t>MFVD Area</t>
+  </si>
+  <si>
+    <t>MFVD Branches</t>
+  </si>
+  <si>
+    <t>NDF Area</t>
+  </si>
+  <si>
+    <t>NSF Area</t>
+  </si>
+  <si>
+    <t>RBH Area</t>
+  </si>
+  <si>
+    <t>SBE Area</t>
+  </si>
+  <si>
+    <t>Bulacan Employees</t>
+  </si>
+  <si>
+    <t>SBRI-Central Employees</t>
+  </si>
+  <si>
+    <t>SBRI Branches</t>
+  </si>
+  <si>
+    <t>Auxillary Companies</t>
+  </si>
+  <si>
+    <t>AUX Branches</t>
   </si>
 </sst>
 </file>
@@ -442,18 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -486,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -519,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -530,7 +588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -541,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -552,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -563,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -574,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -585,7 +643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -596,7 +654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -605,6 +663,202 @@
       </c>
       <c r="C14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -630,7 +884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,7 +896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
